--- a/Data/Test Suite Prerequisites.xlsx
+++ b/Data/Test Suite Prerequisites.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\development\feature\1.5.0\gpconnect-provider-testing\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GPConnect\Provider\gpconnect-patientfacingservice-provider-testing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3133472F-6941-466A-9D18-883F557EF245}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D67DC8A-2B38-48E3-AA5E-27453C6A5C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="0" windowWidth="29040" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Patients" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="127">
   <si>
     <t>Required Organizations and Slots for testing</t>
   </si>
@@ -454,6 +454,18 @@
   <si>
     <t>x
 One Document over 5mb in size</t>
+  </si>
+  <si>
+    <t>acute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x </t>
+  </si>
+  <si>
+    <t>repeat-dispensing</t>
+  </si>
+  <si>
+    <t>delayed-prescribing</t>
   </si>
 </sst>
 </file>
@@ -651,10 +663,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="46">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -663,51 +675,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -718,7 +727,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -733,19 +742,18 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -754,18 +762,14 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1122,9 +1126,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1132,15 +1136,14 @@
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="53" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="45" customWidth="1"/>
-    <col min="5" max="8" width="19.85546875" customWidth="1"/>
-    <col min="9" max="10" width="19.85546875" style="31" customWidth="1"/>
-    <col min="11" max="11" width="25" style="31" customWidth="1"/>
-    <col min="12" max="12" width="54.140625" style="31" customWidth="1"/>
-    <col min="13" max="13" width="55.85546875" style="31" customWidth="1"/>
-    <col min="14" max="14" width="19.85546875" style="31" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="31" customWidth="1"/>
-    <col min="16" max="16" width="19.42578125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="41" customWidth="1"/>
+    <col min="5" max="10" width="19.85546875" customWidth="1"/>
+    <col min="11" max="11" width="25" customWidth="1"/>
+    <col min="12" max="12" width="54.140625" customWidth="1"/>
+    <col min="13" max="13" width="55.85546875" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="19.42578125" customWidth="1"/>
     <col min="17" max="17" width="36.28515625" customWidth="1"/>
     <col min="18" max="18" width="24.5703125" customWidth="1"/>
     <col min="19" max="27" width="11.5703125" customWidth="1"/>
@@ -1176,7 +1179,7 @@
       <c r="AA1" s="2"/>
     </row>
     <row r="2" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="40" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="6"/>
@@ -1256,25 +1259,25 @@
       <c r="I4" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="15" t="s">
         <v>94</v>
       </c>
       <c r="K4" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="N4" s="22" t="s">
+      <c r="N4" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="O4" s="22" t="s">
+      <c r="O4" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="P4" s="22" t="s">
+      <c r="P4" s="15" t="s">
         <v>106</v>
       </c>
       <c r="Q4" s="16" t="s">
@@ -1298,7 +1301,7 @@
       <c r="C5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="15" t="s">
         <v>116</v>
       </c>
       <c r="E5" s="15">
@@ -1314,13 +1317,13 @@
         <v>0</v>
       </c>
       <c r="I5" s="14"/>
-      <c r="J5" s="22"/>
+      <c r="J5" s="15"/>
       <c r="K5" s="14"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
       <c r="Q5" s="20"/>
       <c r="R5" s="18" t="s">
         <v>20</v>
@@ -1342,7 +1345,7 @@
       <c r="C6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="15" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="15" t="s">
@@ -1360,25 +1363,25 @@
       <c r="I6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="15" t="s">
         <v>111</v>
       </c>
       <c r="K6" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="L6" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="M6" s="22" t="s">
+      <c r="M6" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="N6" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="O6" s="22" t="s">
+      <c r="O6" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="P6" s="22" t="s">
+      <c r="P6" s="15" t="s">
         <v>115</v>
       </c>
       <c r="Q6" s="20"/>
@@ -1402,7 +1405,7 @@
       <c r="C7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="15" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="15" t="s">
@@ -1411,8 +1414,8 @@
       <c r="F7" s="14">
         <v>0</v>
       </c>
-      <c r="G7" s="14">
-        <v>0</v>
+      <c r="G7" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>25</v>
@@ -1420,25 +1423,25 @@
       <c r="I7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="15" t="s">
         <v>25</v>
       </c>
       <c r="K7" s="14">
         <v>0</v>
       </c>
-      <c r="L7" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="22" t="s">
+      <c r="L7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="N7" s="22" t="s">
+      <c r="N7" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="O7" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="P7" s="22" t="s">
+      <c r="O7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P7" s="15" t="s">
         <v>108</v>
       </c>
       <c r="Q7" s="20"/>
@@ -1462,7 +1465,7 @@
       <c r="C8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="15" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="15" t="s">
@@ -1480,25 +1483,25 @@
       <c r="I8" s="14">
         <v>0</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="15">
         <v>0</v>
       </c>
       <c r="K8" s="14">
         <v>0</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="15">
         <v>0</v>
       </c>
-      <c r="M8" s="22">
+      <c r="M8" s="15">
         <v>0</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="15">
         <v>0</v>
       </c>
-      <c r="O8" s="22" t="s">
+      <c r="O8" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="P8" s="22">
+      <c r="P8" s="15">
         <v>0</v>
       </c>
       <c r="Q8" s="20"/>
@@ -1522,7 +1525,7 @@
       <c r="C9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="15" t="s">
         <v>117</v>
       </c>
       <c r="E9" s="15">
@@ -1532,7 +1535,7 @@
         <v>25</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="H9" s="14">
         <v>0</v>
@@ -1546,19 +1549,19 @@
       <c r="K9" s="14">
         <v>0</v>
       </c>
-      <c r="L9" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="O9" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="P9" s="22" t="s">
+      <c r="L9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" s="15" t="s">
         <v>22</v>
       </c>
       <c r="Q9" s="20"/>
@@ -1582,7 +1585,7 @@
       <c r="C10" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="15" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="15" t="s">
@@ -1606,19 +1609,19 @@
       <c r="K10" s="14">
         <v>0</v>
       </c>
-      <c r="L10" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="N10" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="O10" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="P10" s="22" t="s">
+      <c r="L10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" s="15" t="s">
         <v>22</v>
       </c>
       <c r="Q10" s="20"/>
@@ -1642,7 +1645,7 @@
       <c r="C11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="15" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="15" t="s">
@@ -1666,19 +1669,19 @@
       <c r="K11" s="14">
         <v>0</v>
       </c>
-      <c r="L11" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="N11" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="O11" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="P11" s="22" t="s">
+      <c r="L11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P11" s="15" t="s">
         <v>22</v>
       </c>
       <c r="Q11" s="20"/>
@@ -1702,7 +1705,7 @@
       <c r="C12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="15" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="15" t="s">
@@ -1726,19 +1729,19 @@
       <c r="K12" s="14">
         <v>0</v>
       </c>
-      <c r="L12" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12" s="22" t="s">
+      <c r="L12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="15" t="s">
         <v>22</v>
       </c>
       <c r="Q12" s="20"/>
@@ -1756,13 +1759,13 @@
       <c r="AA12" s="6"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="25" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="15" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="15" t="s">
@@ -1786,25 +1789,25 @@
       <c r="K13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="L13" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="M13" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="N13" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="O13" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="P13" s="22" t="s">
+      <c r="L13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P13" s="15" t="s">
         <v>22</v>
       </c>
       <c r="Q13" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="R13" s="26" t="s">
+      <c r="R13" s="25" t="s">
         <v>40</v>
       </c>
       <c r="S13" s="6"/>
@@ -1818,13 +1821,13 @@
       <c r="AA13" s="6"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="25" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="15" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="15" t="s">
@@ -1848,25 +1851,25 @@
       <c r="K14" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="N14" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="O14" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="P14" s="22" t="s">
+      <c r="L14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P14" s="15" t="s">
         <v>22</v>
       </c>
       <c r="Q14" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="R14" s="26" t="s">
+      <c r="R14" s="25" t="s">
         <v>42</v>
       </c>
       <c r="S14" s="6"/>
@@ -1880,13 +1883,13 @@
       <c r="AA14" s="6"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>43</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="15" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="15" t="s">
@@ -1910,25 +1913,25 @@
       <c r="K15" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="N15" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="O15" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="P15" s="22" t="s">
+      <c r="L15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P15" s="15" t="s">
         <v>22</v>
       </c>
       <c r="Q15" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="R15" s="26" t="s">
+      <c r="R15" s="25" t="s">
         <v>43</v>
       </c>
       <c r="S15" s="6"/>
@@ -1942,13 +1945,13 @@
       <c r="AA15" s="6"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="25" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="15" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="15" t="s">
@@ -1957,8 +1960,8 @@
       <c r="F16" s="14">
         <v>0</v>
       </c>
-      <c r="G16" s="14">
-        <v>0</v>
+      <c r="G16" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="H16" s="14" t="s">
         <v>25</v>
@@ -1972,25 +1975,25 @@
       <c r="K16" s="14">
         <v>0</v>
       </c>
-      <c r="L16" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="N16" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="O16" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="P16" s="22" t="s">
+      <c r="L16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P16" s="15" t="s">
         <v>22</v>
       </c>
       <c r="Q16" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="R16" s="26" t="s">
+      <c r="R16" s="25" t="s">
         <v>45</v>
       </c>
       <c r="S16" s="6"/>
@@ -2004,13 +2007,13 @@
       <c r="AA16" s="6"/>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="15" t="s">
         <v>25</v>
       </c>
       <c r="E17" s="15" t="s">
@@ -2034,25 +2037,25 @@
       <c r="K17" s="14">
         <v>0</v>
       </c>
-      <c r="L17" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="M17" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="N17" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="O17" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="P17" s="22" t="s">
+      <c r="L17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P17" s="15" t="s">
         <v>22</v>
       </c>
       <c r="Q17" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="R17" s="26" t="s">
+      <c r="R17" s="25" t="s">
         <v>47</v>
       </c>
       <c r="S17" s="6"/>
@@ -2066,13 +2069,13 @@
       <c r="AA17" s="6"/>
     </row>
     <row r="18" spans="2:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="25" t="s">
         <v>52</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="15" t="s">
         <v>25</v>
       </c>
       <c r="E18" s="15" t="s">
@@ -2096,25 +2099,25 @@
       <c r="K18" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="N18" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="P18" s="22" t="s">
+      <c r="L18" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P18" s="15" t="s">
         <v>22</v>
       </c>
       <c r="Q18" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="R18" s="26" t="s">
+      <c r="R18" s="25" t="s">
         <v>52</v>
       </c>
       <c r="S18" s="6"/>
@@ -2128,13 +2131,13 @@
       <c r="AA18" s="6"/>
     </row>
     <row r="19" spans="2:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="25" t="s">
         <v>56</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="15" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="15" t="s">
@@ -2158,25 +2161,25 @@
       <c r="K19" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="M19" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="N19" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="O19" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="P19" s="22" t="s">
+      <c r="L19" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O19" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P19" s="15" t="s">
         <v>22</v>
       </c>
       <c r="Q19" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="R19" s="26" t="s">
+      <c r="R19" s="25" t="s">
         <v>56</v>
       </c>
       <c r="S19" s="6"/>
@@ -2190,23 +2193,23 @@
       <c r="AA19" s="6"/>
     </row>
     <row r="20" spans="2:27" ht="75" x14ac:dyDescent="0.25">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="25" t="s">
         <v>60</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="15" t="s">
         <v>25</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="H20" s="14" t="s">
         <v>22</v>
@@ -2220,25 +2223,25 @@
       <c r="K20" s="14">
         <v>0</v>
       </c>
-      <c r="L20" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="M20" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="N20" s="22" t="s">
+      <c r="L20" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N20" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="O20" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="P20" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q20" s="39" t="s">
+      <c r="O20" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q20" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="R20" s="26" t="s">
+      <c r="R20" s="25" t="s">
         <v>60</v>
       </c>
       <c r="S20" s="6"/>
@@ -2252,16 +2255,16 @@
       <c r="AA20" s="6"/>
     </row>
     <row r="21" spans="2:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="25" t="s">
         <v>64</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="28" t="s">
         <v>22</v>
       </c>
       <c r="F21" s="14" t="s">
@@ -2282,25 +2285,25 @@
       <c r="K21" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="L21" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="M21" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="N21" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="O21" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="P21" s="22" t="s">
+      <c r="L21" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O21" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P21" s="15" t="s">
         <v>22</v>
       </c>
       <c r="Q21" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="R21" s="26" t="s">
+      <c r="R21" s="25" t="s">
         <v>64</v>
       </c>
       <c r="S21" s="6"/>
@@ -2314,16 +2317,16 @@
       <c r="AA21" s="6"/>
     </row>
     <row r="22" spans="2:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="25" t="s">
         <v>65</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="29" t="s">
+      <c r="D22" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="28" t="s">
         <v>22</v>
       </c>
       <c r="F22" s="14" t="s">
@@ -2344,25 +2347,25 @@
       <c r="K22" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="L22" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="M22" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="N22" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="O22" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="P22" s="22" t="s">
+      <c r="L22" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N22" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O22" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P22" s="15" t="s">
         <v>22</v>
       </c>
       <c r="Q22" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="R22" s="26" t="s">
+      <c r="R22" s="25" t="s">
         <v>65</v>
       </c>
       <c r="S22" s="6"/>
@@ -2375,17 +2378,17 @@
       <c r="Z22" s="6"/>
       <c r="AA22" s="6"/>
     </row>
-    <row r="23" spans="2:27" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="26" t="s">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B23" s="25" t="s">
         <v>90</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="29" t="s">
+      <c r="D23" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="28" t="s">
         <v>22</v>
       </c>
       <c r="F23" s="14" t="s">
@@ -2406,23 +2409,23 @@
       <c r="K23" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="L23" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="M23" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="N23" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="O23" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="P23" s="22" t="s">
+      <c r="L23" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N23" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O23" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P23" s="15" t="s">
         <v>22</v>
       </c>
       <c r="Q23" s="16"/>
-      <c r="R23" s="26" t="s">
+      <c r="R23" s="25" t="s">
         <v>90</v>
       </c>
       <c r="S23" s="6"/>
@@ -2436,16 +2439,16 @@
       <c r="AA23" s="6"/>
     </row>
     <row r="24" spans="2:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="25" t="s">
         <v>67</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="29" t="s">
+      <c r="D24" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="28" t="s">
         <v>22</v>
       </c>
       <c r="F24" s="14" t="s">
@@ -2466,25 +2469,25 @@
       <c r="K24" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="N24" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="O24" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="P24" s="22" t="s">
+      <c r="L24" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N24" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P24" s="15" t="s">
         <v>22</v>
       </c>
       <c r="Q24" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="R24" s="26" t="s">
+      <c r="R24" s="25" t="s">
         <v>67</v>
       </c>
       <c r="S24" s="6"/>
@@ -2497,17 +2500,17 @@
       <c r="Z24" s="6"/>
       <c r="AA24" s="6"/>
     </row>
-    <row r="25" spans="2:27" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="26" t="s">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B25" s="25" t="s">
         <v>92</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="29" t="s">
+      <c r="D25" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="28" t="s">
         <v>22</v>
       </c>
       <c r="F25" s="14" t="s">
@@ -2528,25 +2531,25 @@
       <c r="K25" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="L25" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="N25" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="O25" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="P25" s="22" t="s">
+      <c r="L25" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P25" s="15" t="s">
         <v>22</v>
       </c>
       <c r="Q25" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="R25" s="26" t="s">
+      <c r="R25" s="25" t="s">
         <v>92</v>
       </c>
       <c r="S25" s="6"/>
@@ -3742,18 +3745,18 @@
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -3815,7 +3818,7 @@
       <c r="J4" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="22" t="s">
         <v>19</v>
       </c>
       <c r="L4" s="1"/>
@@ -3831,34 +3834,34 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="28"/>
+      <c r="D5" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="27"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -3872,34 +3875,34 @@
     </row>
     <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="28"/>
+      <c r="D6" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="27"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -3913,34 +3916,34 @@
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="28"/>
+      <c r="D7" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="27"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -3954,34 +3957,34 @@
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="28"/>
+      <c r="D8" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="27"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -3995,34 +3998,34 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="28"/>
+      <c r="D9" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="27"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -4036,34 +4039,34 @@
     </row>
     <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="28"/>
+      <c r="D10" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="27"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -4077,34 +4080,34 @@
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="28"/>
+      <c r="D11" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="27"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -4118,34 +4121,34 @@
     </row>
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="28"/>
+      <c r="D12" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="27"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -4159,34 +4162,34 @@
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="23"/>
+      <c r="D13" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="22"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -4200,34 +4203,34 @@
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="23"/>
+      <c r="D14" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="22"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -4241,34 +4244,34 @@
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="23"/>
+      <c r="D15" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="22"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -5408,7 +5411,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M1000"/>
+  <dimension ref="B1:L1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5423,23 +5426,11 @@
     <col min="13" max="13" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-    </row>
-    <row r="2" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
+    <row r="1" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>71</v>
       </c>
@@ -5453,330 +5444,97 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
-      <c r="M2" s="31"/>
-    </row>
-    <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="33" t="s">
+    </row>
+    <row r="3" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="31"/>
-    </row>
-    <row r="4" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-    </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+    </row>
+    <row r="4" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>74</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-    </row>
-    <row r="6" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
+    </row>
+    <row r="6" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="32">
         <v>0</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-    </row>
-    <row r="7" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
+    </row>
+    <row r="7" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="32">
         <v>1</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-    </row>
-    <row r="8" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
+    </row>
+    <row r="8" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="32">
         <v>2</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-    </row>
-    <row r="9" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
+    </row>
+    <row r="9" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="32">
         <v>1</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-    </row>
-    <row r="10" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-    </row>
-    <row r="11" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
+      <c r="E9" s="30"/>
+    </row>
+    <row r="10" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-    </row>
-    <row r="12" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
+      <c r="C11" s="31"/>
+    </row>
+    <row r="12" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>81</v>
       </c>
       <c r="C12" s="7"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-    </row>
-    <row r="13" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-    </row>
-    <row r="14" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-    </row>
-    <row r="15" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-    </row>
-    <row r="16" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-    </row>
-    <row r="17" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-    </row>
-    <row r="18" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-    </row>
-    <row r="19" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-    </row>
-    <row r="20" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-    </row>
-    <row r="21" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="13" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6794,13 +6552,13 @@
     </row>
     <row r="2" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
@@ -6814,11 +6572,11 @@
     </row>
     <row r="3" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
@@ -6832,19 +6590,19 @@
     </row>
     <row r="4" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="33" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="11"/>
@@ -6860,19 +6618,19 @@
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="34">
         <v>42792</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="35">
         <v>0.44097222222222199</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="37"/>
+      <c r="F5" s="35"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
@@ -6886,19 +6644,19 @@
     </row>
     <row r="6" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="34">
         <v>42737</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="35">
         <v>0.52777777777777801</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="F6" s="37"/>
+      <c r="F6" s="35"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
@@ -6912,19 +6670,19 @@
     </row>
     <row r="7" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="34">
         <v>43098</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="35">
         <v>0.52777777777777801</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="35" t="s">
         <v>86</v>
       </c>
       <c r="G7" s="11"/>
@@ -6976,16 +6734,16 @@
     </row>
     <row r="10" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
@@ -6996,14 +6754,14 @@
     </row>
     <row r="11" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
@@ -7014,16 +6772,16 @@
     </row>
     <row r="12" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
@@ -7034,14 +6792,14 @@
     </row>
     <row r="13" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
@@ -7052,18 +6810,18 @@
     </row>
     <row r="14" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
@@ -7074,18 +6832,18 @@
     </row>
     <row r="15" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="32">
         <v>30</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
@@ -7096,18 +6854,18 @@
     </row>
     <row r="16" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="32">
         <v>20</v>
       </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
@@ -7118,18 +6876,18 @@
     </row>
     <row r="17" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="34">
+      <c r="C17" s="32">
         <v>0</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
@@ -7174,54 +6932,54 @@
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
     </row>
-    <row r="20" spans="1:16" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="49" t="s">
+    <row r="20" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-    </row>
-    <row r="21" spans="1:16" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="42" t="s">
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+    </row>
+    <row r="21" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-    </row>
-    <row r="22" spans="1:16" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="42" t="s">
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
